--- a/Code/Results/Cases/Case_0_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_162/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.02015421711735854</v>
+        <v>0.03900598280555201</v>
       </c>
       <c r="D2">
-        <v>0.04799575585837346</v>
+        <v>0.06171644822111944</v>
       </c>
       <c r="E2">
-        <v>0.1207990270141543</v>
+        <v>0.1273645648577855</v>
       </c>
       <c r="F2">
-        <v>2.316034994068147</v>
+        <v>3.024660653864856</v>
       </c>
       <c r="G2">
-        <v>0.00080043084226481</v>
+        <v>0.002548312747561555</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.466153375230434</v>
+        <v>1.795120758473388</v>
       </c>
       <c r="J2">
-        <v>0.2241842611671245</v>
+        <v>0.2213205928045738</v>
       </c>
       <c r="K2">
-        <v>5.477608215142027</v>
+        <v>2.949830790324086</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7664209852701571</v>
+        <v>1.68198484549966</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02055201074610125</v>
+        <v>0.03908443852522403</v>
       </c>
       <c r="D3">
-        <v>0.04228798901940678</v>
+        <v>0.06036937914596052</v>
       </c>
       <c r="E3">
-        <v>0.1072244502754884</v>
+        <v>0.1247593813203594</v>
       </c>
       <c r="F3">
-        <v>2.122069511245755</v>
+        <v>3.002578464191458</v>
       </c>
       <c r="G3">
-        <v>0.0008096151649323843</v>
+        <v>0.002554012195755754</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.338552901527848</v>
+        <v>1.779397174936918</v>
       </c>
       <c r="J3">
-        <v>0.1994093992910422</v>
+        <v>0.216842663057264</v>
       </c>
       <c r="K3">
-        <v>4.746322412072175</v>
+        <v>2.772341838323598</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8296458762856194</v>
+        <v>1.705569986164299</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02080161582653517</v>
+        <v>0.0391360612526519</v>
       </c>
       <c r="D4">
-        <v>0.03880902998261604</v>
+        <v>0.05955873523247845</v>
       </c>
       <c r="E4">
-        <v>0.099082387121463</v>
+        <v>0.1232267231857165</v>
       </c>
       <c r="F4">
-        <v>2.009039276286302</v>
+        <v>2.990965839343943</v>
       </c>
       <c r="G4">
-        <v>0.0008153932261901193</v>
+        <v>0.002557693423782093</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.264209791331425</v>
+        <v>1.770961239297279</v>
       </c>
       <c r="J4">
-        <v>0.184670653783769</v>
+        <v>0.2142320986826718</v>
       </c>
       <c r="K4">
-        <v>4.304829070609003</v>
+        <v>2.664938426658011</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.870107588254756</v>
+        <v>1.720737386578969</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.02090468342408514</v>
+        <v>0.03915797147954514</v>
       </c>
       <c r="D5">
-        <v>0.03739684712909508</v>
+        <v>0.05923256382047981</v>
       </c>
       <c r="E5">
-        <v>0.09580750267213034</v>
+        <v>0.1226189460210279</v>
       </c>
       <c r="F5">
-        <v>1.964356430215773</v>
+        <v>2.98672073641238</v>
       </c>
       <c r="G5">
-        <v>0.0008177847736009715</v>
+        <v>0.002559239418056618</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.234822263993209</v>
+        <v>1.76782834833574</v>
       </c>
       <c r="J5">
-        <v>0.178770329614018</v>
+        <v>0.2132030283997324</v>
       </c>
       <c r="K5">
-        <v>4.126544560492903</v>
+        <v>2.621564533163905</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8869913012875372</v>
+        <v>1.727090438983241</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02092187962250236</v>
+        <v>0.03916166259216247</v>
       </c>
       <c r="D6">
-        <v>0.03716266338518892</v>
+        <v>0.05917865630254937</v>
       </c>
       <c r="E6">
-        <v>0.09526616324564685</v>
+        <v>0.1225190382935644</v>
       </c>
       <c r="F6">
-        <v>1.957016043469068</v>
+        <v>2.986045198814608</v>
       </c>
       <c r="G6">
-        <v>0.0008181841753244272</v>
+        <v>0.002559498903807898</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.229994596918743</v>
+        <v>1.767326499446895</v>
       </c>
       <c r="J6">
-        <v>0.1777966158839703</v>
+        <v>0.2130342462550132</v>
       </c>
       <c r="K6">
-        <v>4.0970316186785</v>
+        <v>2.614386053837336</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.889818219938757</v>
+        <v>1.728155751308082</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.02080300034842786</v>
+        <v>0.03913635319787367</v>
       </c>
       <c r="D7">
-        <v>0.03878996359230769</v>
+        <v>0.05955431943159084</v>
       </c>
       <c r="E7">
-        <v>0.09903805327596871</v>
+        <v>0.1232184585422402</v>
       </c>
       <c r="F7">
-        <v>2.008431273776466</v>
+        <v>2.990906618916341</v>
       </c>
       <c r="G7">
-        <v>0.0008154253273283481</v>
+        <v>0.002557714087539959</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.263809909152087</v>
+        <v>1.770917755897699</v>
       </c>
       <c r="J7">
-        <v>0.1845906679245815</v>
+        <v>0.2142180797801743</v>
       </c>
       <c r="K7">
-        <v>4.302418403541367</v>
+        <v>2.664351879425396</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8703337095268715</v>
+        <v>1.720822369187355</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.02029026412716917</v>
+        <v>0.03903232163113657</v>
       </c>
       <c r="D8">
-        <v>0.04602181075954803</v>
+        <v>0.0612485812914656</v>
       </c>
       <c r="E8">
-        <v>0.1160750871718577</v>
+        <v>0.1264523808795772</v>
       </c>
       <c r="F8">
-        <v>2.24780380969888</v>
+        <v>3.016641500145198</v>
       </c>
       <c r="G8">
-        <v>0.000803570054406627</v>
+        <v>0.002550240294792983</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.421263180082789</v>
+        <v>1.789445434081912</v>
       </c>
       <c r="J8">
-        <v>0.2155353927934414</v>
+        <v>0.2197476670035883</v>
       </c>
       <c r="K8">
-        <v>5.223733908670908</v>
+        <v>2.88830413174685</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7878692030021188</v>
+        <v>1.689974440965079</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01932762013476363</v>
+        <v>0.03885544414278286</v>
       </c>
       <c r="D9">
-        <v>0.06045439188426371</v>
+        <v>0.06470041834172235</v>
       </c>
       <c r="E9">
-        <v>0.1512879835297767</v>
+        <v>0.133327442022015</v>
       </c>
       <c r="F9">
-        <v>2.772784518317707</v>
+        <v>3.082653752521992</v>
       </c>
       <c r="G9">
-        <v>0.0007813217372255399</v>
+        <v>0.00253701880708087</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.766801807405031</v>
+        <v>1.835520856731875</v>
       </c>
       <c r="J9">
-        <v>0.2806371354585337</v>
+        <v>0.2317020068855697</v>
       </c>
       <c r="K9">
-        <v>7.103449346365892</v>
+        <v>3.34010703526269</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6400613607938457</v>
+        <v>1.634937371502317</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01864790387270077</v>
+        <v>0.03874170301394386</v>
       </c>
       <c r="D10">
-        <v>0.07128737260859452</v>
+        <v>0.06731406027853382</v>
       </c>
       <c r="E10">
-        <v>0.1786926939362772</v>
+        <v>0.1387075901179884</v>
       </c>
       <c r="F10">
-        <v>3.204180050185727</v>
+        <v>3.140788450616668</v>
       </c>
       <c r="G10">
-        <v>0.0007654247515846011</v>
+        <v>0.002528169081794911</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.051023477438932</v>
+        <v>1.875423131676769</v>
       </c>
       <c r="J10">
-        <v>0.3322185118147161</v>
+        <v>0.2411754659610068</v>
       </c>
       <c r="K10">
-        <v>8.550250267604611</v>
+        <v>3.679971656325563</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.541339342501983</v>
+        <v>1.59784317808376</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01834536477432636</v>
+        <v>0.03869341368410417</v>
       </c>
       <c r="D11">
-        <v>0.0762855193222407</v>
+        <v>0.06851967292529793</v>
       </c>
       <c r="E11">
-        <v>0.1916071905447438</v>
+        <v>0.141227520282051</v>
       </c>
       <c r="F11">
-        <v>3.413473667015552</v>
+        <v>3.169363032387054</v>
       </c>
       <c r="G11">
-        <v>0.000758248268334017</v>
+        <v>0.002524328504911386</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.189009810486141</v>
+        <v>1.894914348718942</v>
       </c>
       <c r="J11">
-        <v>0.3567779201767962</v>
+        <v>0.2456381724753953</v>
       </c>
       <c r="K11">
-        <v>9.228332460720992</v>
+        <v>3.836357481203038</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.4989432073081232</v>
+        <v>1.581697138953269</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01823185628892432</v>
+        <v>0.03867561915946283</v>
       </c>
       <c r="D12">
-        <v>0.07819023343181186</v>
+        <v>0.06897857559913234</v>
       </c>
       <c r="E12">
-        <v>0.1965732000158198</v>
+        <v>0.1421922359687144</v>
       </c>
       <c r="F12">
-        <v>3.494911840415227</v>
+        <v>3.180492351292202</v>
       </c>
       <c r="G12">
-        <v>0.0007555345516104971</v>
+        <v>0.002522900639322468</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.242718295349206</v>
+        <v>1.902489713290962</v>
       </c>
       <c r="J12">
-        <v>0.3662628646227404</v>
+        <v>0.2473503370941046</v>
       </c>
       <c r="K12">
-        <v>9.488521378701762</v>
+        <v>3.895836158178497</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.4832874586144307</v>
+        <v>1.575688139996231</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01825625344095982</v>
+        <v>0.03867942973944594</v>
       </c>
       <c r="D13">
-        <v>0.07777945046048984</v>
+        <v>0.06887963808290465</v>
       </c>
       <c r="E13">
-        <v>0.1955001242336607</v>
+        <v>0.1419840005689608</v>
       </c>
       <c r="F13">
-        <v>3.477270180791578</v>
+        <v>3.178081679558147</v>
       </c>
       <c r="G13">
-        <v>0.000756118898650924</v>
+        <v>0.00252320698055285</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.231082830136657</v>
+        <v>1.900849544399478</v>
       </c>
       <c r="J13">
-        <v>0.3642114099423566</v>
+        <v>0.2469805995828267</v>
       </c>
       <c r="K13">
-        <v>9.432323559608335</v>
+        <v>3.883014806355391</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4866408114579137</v>
+        <v>1.576977601672965</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01833600450163786</v>
+        <v>0.03869193989307718</v>
       </c>
       <c r="D14">
-        <v>0.07644196819944682</v>
+        <v>0.06855737993871003</v>
       </c>
       <c r="E14">
-        <v>0.1920141626913008</v>
+        <v>0.1413066778314587</v>
       </c>
       <c r="F14">
-        <v>3.420127954422696</v>
+        <v>3.170272445257837</v>
       </c>
       <c r="G14">
-        <v>0.0007580249572519682</v>
+        <v>0.002524210503789486</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.19339796473615</v>
+        <v>1.895533670484184</v>
       </c>
       <c r="J14">
-        <v>0.3575543759912421</v>
+        <v>0.2457785864754385</v>
       </c>
       <c r="K14">
-        <v>9.249666496245482</v>
+        <v>3.841245625262445</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4976469729398421</v>
+        <v>1.581200665028511</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01838499542400385</v>
+        <v>0.03869966660518287</v>
       </c>
       <c r="D15">
-        <v>0.0756243499458833</v>
+        <v>0.06836029437184266</v>
       </c>
       <c r="E15">
-        <v>0.1898891116752637</v>
+        <v>0.1408931635184416</v>
       </c>
       <c r="F15">
-        <v>3.385420913600285</v>
+        <v>3.165529350090424</v>
       </c>
       <c r="G15">
-        <v>0.0007591928451869956</v>
+        <v>0.002524828634017532</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.1705111722423</v>
+        <v>1.892302924510474</v>
       </c>
       <c r="J15">
-        <v>0.3535017055735068</v>
+        <v>0.2450452205453502</v>
       </c>
       <c r="K15">
-        <v>9.138246076324492</v>
+        <v>3.815694579614444</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.504441702078525</v>
+        <v>1.583801120524049</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01866781725287225</v>
+        <v>0.03874492788411033</v>
       </c>
       <c r="D16">
-        <v>0.07096230290224526</v>
+        <v>0.0672356030698964</v>
       </c>
       <c r="E16">
-        <v>0.1778586315836108</v>
+        <v>0.1385443694471817</v>
       </c>
       <c r="F16">
-        <v>3.190789991017709</v>
+        <v>3.138964094997448</v>
       </c>
       <c r="G16">
-        <v>0.000765894526784222</v>
+        <v>0.002528423786039194</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.042197579580417</v>
+        <v>1.874176445820865</v>
       </c>
       <c r="J16">
-        <v>0.3306377759026873</v>
+        <v>0.2408869176252182</v>
       </c>
       <c r="K16">
-        <v>8.506381994757533</v>
+        <v>3.669787527877588</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.5441636641894227</v>
+        <v>1.598913051174506</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01884308597462692</v>
+        <v>0.0387735748864344</v>
       </c>
       <c r="D17">
-        <v>0.06812154956942607</v>
+        <v>0.06654988422874908</v>
       </c>
       <c r="E17">
-        <v>0.1706004866781754</v>
+        <v>0.1371220584840245</v>
       </c>
       <c r="F17">
-        <v>3.074936689708039</v>
+        <v>3.123214265205291</v>
       </c>
       <c r="G17">
-        <v>0.0007700172007159664</v>
+        <v>0.002530676620945098</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.965844867296241</v>
+        <v>1.863400815769239</v>
       </c>
       <c r="J17">
-        <v>0.3169101317247538</v>
+        <v>0.2383753132248785</v>
       </c>
       <c r="K17">
-        <v>8.124222402926875</v>
+        <v>3.580736095963232</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.5692002914069665</v>
+        <v>1.608370565740977</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01894451579214262</v>
+        <v>0.03879037708490074</v>
       </c>
       <c r="D18">
-        <v>0.06649409685672225</v>
+        <v>0.06615704626595686</v>
       </c>
       <c r="E18">
-        <v>0.1664672005652434</v>
+        <v>0.1363108012441288</v>
       </c>
       <c r="F18">
-        <v>3.009508379821085</v>
+        <v>3.114355594405652</v>
       </c>
       <c r="G18">
-        <v>0.0007723939187302176</v>
+        <v>0.002531989833900315</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.922732973969389</v>
+        <v>1.857328923516377</v>
       </c>
       <c r="J18">
-        <v>0.3091155369036613</v>
+        <v>0.2369451104362099</v>
       </c>
       <c r="K18">
-        <v>7.906252471460675</v>
+        <v>3.529683406767674</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.5838346866785287</v>
+        <v>1.613878802346218</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01897896222111584</v>
+        <v>0.03879612202434402</v>
       </c>
       <c r="D19">
-        <v>0.06594412673100436</v>
+        <v>0.06602430859283004</v>
       </c>
       <c r="E19">
-        <v>0.1650745389086481</v>
+        <v>0.1360372930204861</v>
       </c>
       <c r="F19">
-        <v>2.987554245327459</v>
+        <v>3.111390508502041</v>
       </c>
       <c r="G19">
-        <v>0.0007731996876876684</v>
+        <v>0.002532437465460472</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.908268356982845</v>
+        <v>1.855294663873167</v>
       </c>
       <c r="J19">
-        <v>0.3064930299343018</v>
+        <v>0.2364633362842881</v>
       </c>
       <c r="K19">
-        <v>7.832751893704483</v>
+        <v>3.512426498932371</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.5888287813463133</v>
+        <v>1.615755552882186</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01882436356562067</v>
+        <v>0.03877049174333536</v>
       </c>
       <c r="D20">
-        <v>0.06842326951581157</v>
+        <v>0.06662271797645047</v>
       </c>
       <c r="E20">
-        <v>0.1713687675435693</v>
+        <v>0.1372727598699868</v>
       </c>
       <c r="F20">
-        <v>3.087142429210502</v>
+        <v>3.124870121150423</v>
       </c>
       <c r="G20">
-        <v>0.0007695777971181705</v>
+        <v>0.002530434998873596</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.973888120503247</v>
+        <v>1.864534849770152</v>
       </c>
       <c r="J20">
-        <v>0.318360805350153</v>
+        <v>0.2386411853856316</v>
       </c>
       <c r="K20">
-        <v>8.164709986800972</v>
+        <v>3.590198433654052</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.5665106299560971</v>
+        <v>1.607356702099841</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01831255005170362</v>
+        <v>0.03868825205295678</v>
       </c>
       <c r="D21">
-        <v>0.07683447596666326</v>
+        <v>0.06865197107508436</v>
       </c>
       <c r="E21">
-        <v>0.1930359258664325</v>
+        <v>0.1415053392918111</v>
       </c>
       <c r="F21">
-        <v>3.436850080399608</v>
+        <v>3.172557806288324</v>
       </c>
       <c r="G21">
-        <v>0.0007574650322287361</v>
+        <v>0.00252391502734266</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.204425606056304</v>
+        <v>1.897089778938749</v>
       </c>
       <c r="J21">
-        <v>0.3595044526314837</v>
+        <v>0.2461310417533582</v>
       </c>
       <c r="K21">
-        <v>9.303219858805619</v>
+        <v>3.853507200539639</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4944030475827272</v>
+        <v>1.57995739159208</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01798428145436048</v>
+        <v>0.03863736696662201</v>
       </c>
       <c r="D22">
-        <v>0.08240288989375699</v>
+        <v>0.06999196643571537</v>
       </c>
       <c r="E22">
-        <v>0.2076436022019408</v>
+        <v>0.1443326433128291</v>
       </c>
       <c r="F22">
-        <v>3.678307926630197</v>
+        <v>3.205525316538626</v>
       </c>
       <c r="G22">
-        <v>0.0007495688008055529</v>
+        <v>0.002519808108932832</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.363701926467741</v>
+        <v>1.919500669472569</v>
       </c>
       <c r="J22">
-        <v>0.3874874566905078</v>
+        <v>0.25115579466447</v>
       </c>
       <c r="K22">
-        <v>10.06751939900005</v>
+        <v>4.027104327009795</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.449622577647764</v>
+        <v>1.562663492417053</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01815887232890034</v>
+        <v>0.0386642648379123</v>
       </c>
       <c r="D23">
-        <v>0.07942369003539795</v>
+        <v>0.06927553677405029</v>
       </c>
       <c r="E23">
-        <v>0.1998021733440112</v>
+        <v>0.1428180527700462</v>
       </c>
       <c r="F23">
-        <v>3.548142513560691</v>
+        <v>3.187764279275711</v>
       </c>
       <c r="G23">
-        <v>0.0007537828317561003</v>
+        <v>0.002521985984895897</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.27782894646505</v>
+        <v>1.907435142509229</v>
       </c>
       <c r="J23">
-        <v>0.3724421699314888</v>
+        <v>0.2484620525358849</v>
       </c>
       <c r="K23">
-        <v>9.657544308289516</v>
+        <v>3.934313181765901</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4732941591990958</v>
+        <v>1.571837325777061</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01883282590077329</v>
+        <v>0.03877188459570391</v>
       </c>
       <c r="D24">
-        <v>0.06828684420941045</v>
+        <v>0.06658978550400008</v>
       </c>
       <c r="E24">
-        <v>0.1710213054940581</v>
+        <v>0.1372046076923468</v>
       </c>
       <c r="F24">
-        <v>3.081620569925519</v>
+        <v>3.124120898017509</v>
       </c>
       <c r="G24">
-        <v>0.0007697764307045046</v>
+        <v>0.002530544180097071</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.970249337973357</v>
+        <v>1.864021769518743</v>
       </c>
       <c r="J24">
-        <v>0.3177046537817318</v>
+        <v>0.2385209417626442</v>
       </c>
       <c r="K24">
-        <v>8.146400174778591</v>
+        <v>3.585920061954312</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.5677258795350681</v>
+        <v>1.607814848780388</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01958336838355379</v>
+        <v>0.03890042453580378</v>
       </c>
       <c r="D25">
-        <v>0.05651583057494491</v>
+        <v>0.06375288967567627</v>
       </c>
       <c r="E25">
-        <v>0.1415273508967339</v>
+        <v>0.1314100605271342</v>
       </c>
       <c r="F25">
-        <v>2.623685547075837</v>
+        <v>3.063115165124117</v>
       </c>
       <c r="G25">
-        <v>0.0007872488725280078</v>
+        <v>0.002540443070317781</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.668629582383517</v>
+        <v>1.82200180900648</v>
       </c>
       <c r="J25">
-        <v>0.2624513266628981</v>
+        <v>0.2283477460436671</v>
       </c>
       <c r="K25">
-        <v>6.58508845133764</v>
+        <v>3.216507099837315</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6784259595685427</v>
+        <v>1.64924071885727</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_162/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_162/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.03900598280555201</v>
+        <v>0.02015421711735321</v>
       </c>
       <c r="D2">
-        <v>0.06171644822111944</v>
+        <v>0.04799575585836635</v>
       </c>
       <c r="E2">
-        <v>0.1273645648577855</v>
+        <v>0.1207990270141899</v>
       </c>
       <c r="F2">
-        <v>3.024660653864856</v>
+        <v>2.316034994068147</v>
       </c>
       <c r="G2">
-        <v>0.002548312747561555</v>
+        <v>0.000800430842371918</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.795120758473388</v>
+        <v>1.466153375230434</v>
       </c>
       <c r="J2">
-        <v>0.2213205928045738</v>
+        <v>0.2241842611670961</v>
       </c>
       <c r="K2">
-        <v>2.949830790324086</v>
+        <v>5.477608215142027</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.68198484549966</v>
+        <v>0.7664209852701447</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03908443852522403</v>
+        <v>0.02055201074598401</v>
       </c>
       <c r="D3">
-        <v>0.06036937914596052</v>
+        <v>0.04228798901954889</v>
       </c>
       <c r="E3">
-        <v>0.1247593813203594</v>
+        <v>0.1072244502754884</v>
       </c>
       <c r="F3">
-        <v>3.002578464191458</v>
+        <v>2.122069511245755</v>
       </c>
       <c r="G3">
-        <v>0.002554012195755754</v>
+        <v>0.0008096151649326064</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.779397174936918</v>
+        <v>1.338552901527834</v>
       </c>
       <c r="J3">
-        <v>0.216842663057264</v>
+        <v>0.199409399291099</v>
       </c>
       <c r="K3">
-        <v>2.772341838323598</v>
+        <v>4.746322412072175</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.705569986164299</v>
+        <v>0.8296458762856656</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0391360612526519</v>
+        <v>0.02080161582642148</v>
       </c>
       <c r="D4">
-        <v>0.05955873523247845</v>
+        <v>0.03880902998260183</v>
       </c>
       <c r="E4">
-        <v>0.1232267231857165</v>
+        <v>0.09908238712145945</v>
       </c>
       <c r="F4">
-        <v>2.990965839343943</v>
+        <v>2.009039276286288</v>
       </c>
       <c r="G4">
-        <v>0.002557693423782093</v>
+        <v>0.0008153932262203478</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.770961239297279</v>
+        <v>1.264209791331439</v>
       </c>
       <c r="J4">
-        <v>0.2142320986826718</v>
+        <v>0.1846706537837264</v>
       </c>
       <c r="K4">
-        <v>2.664938426658011</v>
+        <v>4.304829070609117</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.720737386578969</v>
+        <v>0.8701075882547489</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03915797147954514</v>
+        <v>0.02090468342426277</v>
       </c>
       <c r="D5">
-        <v>0.05923256382047981</v>
+        <v>0.03739684712888902</v>
       </c>
       <c r="E5">
-        <v>0.1226189460210279</v>
+        <v>0.09580750267215166</v>
       </c>
       <c r="F5">
-        <v>2.98672073641238</v>
+        <v>1.96435643021573</v>
       </c>
       <c r="G5">
-        <v>0.002559239418056618</v>
+        <v>0.0008177847735716562</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.76782834833574</v>
+        <v>1.234822263993223</v>
       </c>
       <c r="J5">
-        <v>0.2132030283997324</v>
+        <v>0.1787703296140393</v>
       </c>
       <c r="K5">
-        <v>2.621564533163905</v>
+        <v>4.126544560492846</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.727090438983241</v>
+        <v>0.8869913012875283</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03916166259216247</v>
+        <v>0.02092187962274217</v>
       </c>
       <c r="D6">
-        <v>0.05917865630254937</v>
+        <v>0.03716266338518892</v>
       </c>
       <c r="E6">
-        <v>0.1225190382935644</v>
+        <v>0.09526616324566106</v>
       </c>
       <c r="F6">
-        <v>2.986045198814608</v>
+        <v>1.957016043469025</v>
       </c>
       <c r="G6">
-        <v>0.002559498903807898</v>
+        <v>0.0008181841753246492</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.767326499446895</v>
+        <v>1.229994596918743</v>
       </c>
       <c r="J6">
-        <v>0.2130342462550132</v>
+        <v>0.177796615883949</v>
       </c>
       <c r="K6">
-        <v>2.614386053837336</v>
+        <v>4.097031618678443</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.728155751308082</v>
+        <v>0.8898182199388156</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03913635319787367</v>
+        <v>0.02080300034861793</v>
       </c>
       <c r="D7">
-        <v>0.05955431943159084</v>
+        <v>0.03878996359242848</v>
       </c>
       <c r="E7">
-        <v>0.1232184585422402</v>
+        <v>0.09903805327600423</v>
       </c>
       <c r="F7">
-        <v>2.990906618916341</v>
+        <v>2.008431273776452</v>
       </c>
       <c r="G7">
-        <v>0.002557714087539959</v>
+        <v>0.0008154253273469081</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.770917755897699</v>
+        <v>1.263809909152073</v>
       </c>
       <c r="J7">
-        <v>0.2142180797801743</v>
+        <v>0.1845906679245601</v>
       </c>
       <c r="K7">
-        <v>2.664351879425396</v>
+        <v>4.302418403541424</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.720822369187355</v>
+        <v>0.8703337095268573</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03903232163113657</v>
+        <v>0.02029026412670731</v>
       </c>
       <c r="D8">
-        <v>0.0612485812914656</v>
+        <v>0.04602181075933487</v>
       </c>
       <c r="E8">
-        <v>0.1264523808795772</v>
+        <v>0.1160750871718577</v>
       </c>
       <c r="F8">
-        <v>3.016641500145198</v>
+        <v>2.24780380969888</v>
       </c>
       <c r="G8">
-        <v>0.002550240294792983</v>
+        <v>0.0008035700543573291</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.789445434081912</v>
+        <v>1.421263180082789</v>
       </c>
       <c r="J8">
-        <v>0.2197476670035883</v>
+        <v>0.2155353927934982</v>
       </c>
       <c r="K8">
-        <v>2.88830413174685</v>
+        <v>5.223733908670852</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.689974440965079</v>
+        <v>0.7878692030020513</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03885544414278286</v>
+        <v>0.01932762013407796</v>
       </c>
       <c r="D9">
-        <v>0.06470041834172235</v>
+        <v>0.06045439188426371</v>
       </c>
       <c r="E9">
-        <v>0.133327442022015</v>
+        <v>0.1512879835297483</v>
       </c>
       <c r="F9">
-        <v>3.082653752521992</v>
+        <v>2.772784518317707</v>
       </c>
       <c r="G9">
-        <v>0.00253701880708087</v>
+        <v>0.0007813217372817172</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.835520856731875</v>
+        <v>1.766801807405031</v>
       </c>
       <c r="J9">
-        <v>0.2317020068855697</v>
+        <v>0.2806371354585906</v>
       </c>
       <c r="K9">
-        <v>3.34010703526269</v>
+        <v>7.103449346365721</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.634937371502317</v>
+        <v>0.6400613607938261</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.03874170301394386</v>
+        <v>0.01864790387271853</v>
       </c>
       <c r="D10">
-        <v>0.06731406027853382</v>
+        <v>0.07128737260836004</v>
       </c>
       <c r="E10">
-        <v>0.1387075901179884</v>
+        <v>0.1786926939362772</v>
       </c>
       <c r="F10">
-        <v>3.140788450616668</v>
+        <v>3.204180050185727</v>
       </c>
       <c r="G10">
-        <v>0.002528169081794911</v>
+        <v>0.0007654247515847677</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.875423131676769</v>
+        <v>2.051023477438918</v>
       </c>
       <c r="J10">
-        <v>0.2411754659610068</v>
+        <v>0.3322185118147303</v>
       </c>
       <c r="K10">
-        <v>3.679971656325563</v>
+        <v>8.550250267604724</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.59784317808376</v>
+        <v>0.5413393425020434</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.03869341368410417</v>
+        <v>0.01834536477457149</v>
       </c>
       <c r="D11">
-        <v>0.06851967292529793</v>
+        <v>0.0762855193222336</v>
       </c>
       <c r="E11">
-        <v>0.141227520282051</v>
+        <v>0.1916071905447367</v>
       </c>
       <c r="F11">
-        <v>3.169363032387054</v>
+        <v>3.413473667015552</v>
       </c>
       <c r="G11">
-        <v>0.002524328504911386</v>
+        <v>0.0007582482683330889</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.894914348718942</v>
+        <v>2.189009810486155</v>
       </c>
       <c r="J11">
-        <v>0.2456381724753953</v>
+        <v>0.3567779201768246</v>
       </c>
       <c r="K11">
-        <v>3.836357481203038</v>
+        <v>9.228332460721049</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.581697138953269</v>
+        <v>0.4989432073081232</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.03867561915946283</v>
+        <v>0.018231856288903</v>
       </c>
       <c r="D12">
-        <v>0.06897857559913234</v>
+        <v>0.07819023343157028</v>
       </c>
       <c r="E12">
-        <v>0.1421922359687144</v>
+        <v>0.1965732000157772</v>
       </c>
       <c r="F12">
-        <v>3.180492351292202</v>
+        <v>3.494911840415227</v>
       </c>
       <c r="G12">
-        <v>0.002522900639322468</v>
+        <v>0.0007555345515475226</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.902489713290962</v>
+        <v>2.242718295349206</v>
       </c>
       <c r="J12">
-        <v>0.2473503370941046</v>
+        <v>0.3662628646227972</v>
       </c>
       <c r="K12">
-        <v>3.895836158178497</v>
+        <v>9.488521378701819</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.575688139996231</v>
+        <v>0.4832874586144253</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.03867942973944594</v>
+        <v>0.01825625344095272</v>
       </c>
       <c r="D13">
-        <v>0.06887963808290465</v>
+        <v>0.07777945046059642</v>
       </c>
       <c r="E13">
-        <v>0.1419840005689608</v>
+        <v>0.1955001242336678</v>
       </c>
       <c r="F13">
-        <v>3.178081679558147</v>
+        <v>3.477270180791521</v>
       </c>
       <c r="G13">
-        <v>0.00252320698055285</v>
+        <v>0.0007561188987052451</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.900849544399478</v>
+        <v>2.231082830136657</v>
       </c>
       <c r="J13">
-        <v>0.2469805995828267</v>
+        <v>0.3642114099423139</v>
       </c>
       <c r="K13">
-        <v>3.883014806355391</v>
+        <v>9.432323559608278</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.576977601672965</v>
+        <v>0.4866408114579581</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.03869193989307718</v>
+        <v>0.01833600450139627</v>
       </c>
       <c r="D14">
-        <v>0.06855737993871003</v>
+        <v>0.07644196819967419</v>
       </c>
       <c r="E14">
-        <v>0.1413066778314587</v>
+        <v>0.1920141626913079</v>
       </c>
       <c r="F14">
-        <v>3.170272445257837</v>
+        <v>3.420127954422668</v>
       </c>
       <c r="G14">
-        <v>0.002524210503789486</v>
+        <v>0.0007580249573750919</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.895533670484184</v>
+        <v>2.19339796473615</v>
       </c>
       <c r="J14">
-        <v>0.2457785864754385</v>
+        <v>0.3575543759913842</v>
       </c>
       <c r="K14">
-        <v>3.841245625262445</v>
+        <v>9.249666496245311</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.581200665028511</v>
+        <v>0.4976469729398492</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.03869966660518287</v>
+        <v>0.01838499542376937</v>
       </c>
       <c r="D15">
-        <v>0.06836029437184266</v>
+        <v>0.07562434994613909</v>
       </c>
       <c r="E15">
-        <v>0.1408931635184416</v>
+        <v>0.1898891116752637</v>
       </c>
       <c r="F15">
-        <v>3.165529350090424</v>
+        <v>3.385420913600285</v>
       </c>
       <c r="G15">
-        <v>0.002524828634017532</v>
+        <v>0.0007591928451266156</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.892302924510474</v>
+        <v>2.170511172242286</v>
       </c>
       <c r="J15">
-        <v>0.2450452205453502</v>
+        <v>0.3535017055735068</v>
       </c>
       <c r="K15">
-        <v>3.815694579614444</v>
+        <v>9.138246076324606</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.583801120524049</v>
+        <v>0.5044417020784806</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.03874492788411033</v>
+        <v>0.01866781725309252</v>
       </c>
       <c r="D16">
-        <v>0.0672356030698964</v>
+        <v>0.07096230290247263</v>
       </c>
       <c r="E16">
-        <v>0.1385443694471817</v>
+        <v>0.1778586315836108</v>
       </c>
       <c r="F16">
-        <v>3.138964094997448</v>
+        <v>3.190789991017681</v>
       </c>
       <c r="G16">
-        <v>0.002528423786039194</v>
+        <v>0.0007658945268457321</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.874176445820865</v>
+        <v>2.042197579580431</v>
       </c>
       <c r="J16">
-        <v>0.2408869176252182</v>
+        <v>0.3306377759026731</v>
       </c>
       <c r="K16">
-        <v>3.669787527877588</v>
+        <v>8.506381994757703</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.598913051174506</v>
+        <v>0.5441636641893517</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0387735748864344</v>
+        <v>0.01884308597462336</v>
       </c>
       <c r="D17">
-        <v>0.06654988422874908</v>
+        <v>0.06812154956963212</v>
       </c>
       <c r="E17">
-        <v>0.1371220584840245</v>
+        <v>0.1706004866781967</v>
       </c>
       <c r="F17">
-        <v>3.123214265205291</v>
+        <v>3.074936689708068</v>
       </c>
       <c r="G17">
-        <v>0.002530676620945098</v>
+        <v>0.0007700172007727153</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.863400815769239</v>
+        <v>1.965844867296269</v>
       </c>
       <c r="J17">
-        <v>0.2383753132248785</v>
+        <v>0.3169101317247254</v>
       </c>
       <c r="K17">
-        <v>3.580736095963232</v>
+        <v>8.124222402926989</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.608370565740977</v>
+        <v>0.5692002914069452</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.03879037708490074</v>
+        <v>0.0189445157923771</v>
       </c>
       <c r="D18">
-        <v>0.06615704626595686</v>
+        <v>0.06649409685659435</v>
       </c>
       <c r="E18">
-        <v>0.1363108012441288</v>
+        <v>0.1664672005652506</v>
       </c>
       <c r="F18">
-        <v>3.114355594405652</v>
+        <v>3.009508379821085</v>
       </c>
       <c r="G18">
-        <v>0.002531989833900315</v>
+        <v>0.0007723939186720419</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.857328923516377</v>
+        <v>1.922732973969389</v>
       </c>
       <c r="J18">
-        <v>0.2369451104362099</v>
+        <v>0.3091155369036755</v>
       </c>
       <c r="K18">
-        <v>3.529683406767674</v>
+        <v>7.906252471460732</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.613878802346218</v>
+        <v>0.5838346866785855</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.03879612202434402</v>
+        <v>0.01897896222066109</v>
       </c>
       <c r="D19">
-        <v>0.06602430859283004</v>
+        <v>0.06594412673112515</v>
       </c>
       <c r="E19">
-        <v>0.1360372930204861</v>
+        <v>0.1650745389086481</v>
       </c>
       <c r="F19">
-        <v>3.111390508502041</v>
+        <v>2.987554245327459</v>
       </c>
       <c r="G19">
-        <v>0.002532437465460472</v>
+        <v>0.0007731996876862246</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.855294663873167</v>
+        <v>1.908268356982845</v>
       </c>
       <c r="J19">
-        <v>0.2364633362842881</v>
+        <v>0.306493029934316</v>
       </c>
       <c r="K19">
-        <v>3.512426498932371</v>
+        <v>7.832751893704426</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.615755552882186</v>
+        <v>0.588828781346324</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.03877049174333536</v>
+        <v>0.01882436356539685</v>
       </c>
       <c r="D20">
-        <v>0.06662271797645047</v>
+        <v>0.06842326951580446</v>
       </c>
       <c r="E20">
-        <v>0.1372727598699868</v>
+        <v>0.1713687675435693</v>
       </c>
       <c r="F20">
-        <v>3.124870121150423</v>
+        <v>3.08714242921053</v>
       </c>
       <c r="G20">
-        <v>0.002530434998873596</v>
+        <v>0.0007695777971170603</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.864534849770152</v>
+        <v>1.973888120503247</v>
       </c>
       <c r="J20">
-        <v>0.2386411853856316</v>
+        <v>0.3183608053501388</v>
       </c>
       <c r="K20">
-        <v>3.590198433654052</v>
+        <v>8.164709986800915</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.607356702099841</v>
+        <v>0.5665106299560989</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.03868825205295678</v>
+        <v>0.01831255005170718</v>
       </c>
       <c r="D21">
-        <v>0.06865197107508436</v>
+        <v>0.07683447596676984</v>
       </c>
       <c r="E21">
-        <v>0.1415053392918111</v>
+        <v>0.1930359258664325</v>
       </c>
       <c r="F21">
-        <v>3.172557806288324</v>
+        <v>3.436850080399608</v>
       </c>
       <c r="G21">
-        <v>0.00252391502734266</v>
+        <v>0.0007574650322903535</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.897089778938749</v>
+        <v>2.204425606056304</v>
       </c>
       <c r="J21">
-        <v>0.2461310417533582</v>
+        <v>0.3595044526314268</v>
       </c>
       <c r="K21">
-        <v>3.853507200539639</v>
+        <v>9.303219858805733</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.57995739159208</v>
+        <v>0.494403047582729</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.03863736696662201</v>
+        <v>0.01798428145437114</v>
       </c>
       <c r="D22">
-        <v>0.06999196643571537</v>
+        <v>0.08240288989377831</v>
       </c>
       <c r="E22">
-        <v>0.1443326433128291</v>
+        <v>0.2076436022019337</v>
       </c>
       <c r="F22">
-        <v>3.205525316538626</v>
+        <v>3.678307926630197</v>
       </c>
       <c r="G22">
-        <v>0.002519808108932832</v>
+        <v>0.000749568800742853</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.919500669472569</v>
+        <v>2.363701926467741</v>
       </c>
       <c r="J22">
-        <v>0.25115579466447</v>
+        <v>0.3874874566906499</v>
       </c>
       <c r="K22">
-        <v>4.027104327009795</v>
+        <v>10.06751939899999</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.562663492417053</v>
+        <v>0.4496225776477605</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0386642648379123</v>
+        <v>0.01815887232912416</v>
       </c>
       <c r="D23">
-        <v>0.06927553677405029</v>
+        <v>0.07942369003549032</v>
       </c>
       <c r="E23">
-        <v>0.1428180527700462</v>
+        <v>0.1998021733440112</v>
       </c>
       <c r="F23">
-        <v>3.187764279275711</v>
+        <v>3.548142513560691</v>
       </c>
       <c r="G23">
-        <v>0.002521985984895897</v>
+        <v>0.0007537828317553815</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.907435142509229</v>
+        <v>2.27782894646505</v>
       </c>
       <c r="J23">
-        <v>0.2484620525358849</v>
+        <v>0.3724421699315315</v>
       </c>
       <c r="K23">
-        <v>3.934313181765901</v>
+        <v>9.657544308289516</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.571837325777061</v>
+        <v>0.4732941591991491</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.03877188459570391</v>
+        <v>0.01883282590101842</v>
       </c>
       <c r="D24">
-        <v>0.06658978550400008</v>
+        <v>0.06828684420931097</v>
       </c>
       <c r="E24">
-        <v>0.1372046076923468</v>
+        <v>0.1710213054940866</v>
       </c>
       <c r="F24">
-        <v>3.124120898017509</v>
+        <v>3.081620569925519</v>
       </c>
       <c r="G24">
-        <v>0.002530544180097071</v>
+        <v>0.0007697764307052147</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.864021769518743</v>
+        <v>1.970249337973357</v>
       </c>
       <c r="J24">
-        <v>0.2385209417626442</v>
+        <v>0.3177046537818171</v>
       </c>
       <c r="K24">
-        <v>3.585920061954312</v>
+        <v>8.146400174778705</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.607814848780388</v>
+        <v>0.5677258795350841</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03890042453580378</v>
+        <v>0.01958336838332642</v>
       </c>
       <c r="D25">
-        <v>0.06375288967567627</v>
+        <v>0.05651583057481702</v>
       </c>
       <c r="E25">
-        <v>0.1314100605271342</v>
+        <v>0.1415273508967303</v>
       </c>
       <c r="F25">
-        <v>3.063115165124117</v>
+        <v>2.623685547075809</v>
       </c>
       <c r="G25">
-        <v>0.002540443070317781</v>
+        <v>0.0007872488725326537</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.82200180900648</v>
+        <v>1.668629582383517</v>
       </c>
       <c r="J25">
-        <v>0.2283477460436671</v>
+        <v>0.2624513266628696</v>
       </c>
       <c r="K25">
-        <v>3.216507099837315</v>
+        <v>6.585088451337583</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.64924071885727</v>
+        <v>0.6784259595685178</v>
       </c>
       <c r="O25">
         <v>0</v>
